--- a/biology/Zoologie/Gabriel_Bibron/Gabriel_Bibron.xlsx
+++ b/biology/Zoologie/Gabriel_Bibron/Gabriel_Bibron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Bibron est un zoologiste français, né le 20 octobre 1805 à Paris et mort le 27 mars 1848 à Saint-Alban-les-Eaux.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un employé du Muséum national d'histoire naturelle, il reçoit très tôt une bonne formation en histoire naturelle et est employé pour constituer des collections de vertébrés en Italie et en Sicile.
 En avril 1826, il se marie avec Louise Rousseau.
@@ -548,7 +562,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Lescure et Bernard Le Garff, L'étymologie des noms d'amphibiens et de reptiles d'Europe, Paris, Belin, coll. « Éveil nature », 2006, 207 p. (ISBN 978-2-701-14142-8, OCLC 165085146, BNF 40110787)
 Geoffroy Saint-Hilaire père et fils, Bibron, Deshayes et Bory de Saint-Vincent, Vertébrés, Mollusques et Polypiers (1832) in L'expédition scientifique de Morée. Section des sciences physiques (Tome III, Première Partie : Zoologie, Première section), Ministère de l'éducation nationale, France. Commission scientifique de Morée, F.G. Levrault, Paris, 1832-1836.</t>
